--- a/JobScraping/Barem Intro in RPA 2020.xlsx
+++ b/JobScraping/Barem Intro in RPA 2020.xlsx
@@ -503,7 +503,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +539,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -556,6 +557,7 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -582,6 +584,7 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -590,6 +593,7 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -623,6 +627,7 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -631,6 +636,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -649,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -657,7 +663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -665,7 +671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -673,10 +679,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -701,6 +708,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF6CAD2FAE6DA442A38B8919845E33ED" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42223b3d927300fd08be5550dfbf9e9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e6ae30e-26dd-4b83-a10a-f78787a579b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2507b3bd4007a35c8d43e35ff6506e4" ns2:_="">
     <xsd:import namespace="3e6ae30e-26dd-4b83-a10a-f78787a579b0"/>
@@ -858,12 +871,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD952803-3163-4347-9F3A-A41778966D80}">
   <ds:schemaRefs>
@@ -873,6 +880,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D71F8C4-635F-4A64-9B1C-384050625869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e6ae30e-26dd-4b83-a10a-f78787a579b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B3D3BD-6103-46A7-A944-F3A3A70C0314}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -888,20 +911,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D71F8C4-635F-4A64-9B1C-384050625869}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e6ae30e-26dd-4b83-a10a-f78787a579b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>